--- a/Project/Reference File/Fitness Calculator (Update).xlsx
+++ b/Project/Reference File/Fitness Calculator (Update).xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My computer\Documents\UTEM\Sem 4\Evolutionary Computing\Project Evo\Code\Project\Project\Reference File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF98A30-BB5A-49AF-886B-82376E64DE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1C2BF5-C7DB-43D7-9AD5-FEAA15897041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="534" xr2:uid="{93AA0888-EE50-4084-A8E8-9D77CDF703D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="534" activeTab="1" xr2:uid="{93AA0888-EE50-4084-A8E8-9D77CDF703D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fitness" sheetId="1" r:id="rId1"/>
+    <sheet name="Crossover" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
   <si>
     <t>Low</t>
   </si>
@@ -82,12 +83,51 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Parent 1</t>
+  </si>
+  <si>
+    <t>Parent 2</t>
+  </si>
+  <si>
+    <t>Child 1</t>
+  </si>
+  <si>
+    <t>Child 2</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>After Weightage</t>
+  </si>
+  <si>
+    <t>Step 1 - List parent</t>
+  </si>
+  <si>
+    <t>Step 2 - Store swapper section</t>
+  </si>
+  <si>
+    <t>Step 3 - Add value to queue after point 2</t>
+  </si>
+  <si>
+    <t>Step 4 - Remove value on the respective child</t>
+  </si>
+  <si>
+    <t>Step 5 - Bring the queue value forward</t>
+  </si>
+  <si>
+    <t>Step 6 - Fill the child value with respective queue starting from point 2</t>
+  </si>
+  <si>
+    <t>Step 7 - Fill the child value with respective queue from start until point 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,16 +156,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -291,11 +374,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -348,10 +466,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -397,9 +524,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
+    <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -734,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB790E39-B52C-4A15-B574-E65F25F2B03B}">
   <dimension ref="A1:AC42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD18" sqref="AD18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,10 +925,10 @@
         <v>0.5</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="37"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="1">
         <v>40</v>
       </c>
@@ -885,10 +1020,10 @@
         <v>0.2</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="25"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="10">
         <f>INDEX($E$1:$E$40, MATCH(K2, $A$1:$A$40, 0))</f>
         <v>2</v>
@@ -976,10 +1111,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="35"/>
+      <c r="J5" s="42"/>
       <c r="K5" s="8">
         <f>INDEX($F$1:$F$40, MATCH(K2, $A$1:$A$40, 0))</f>
         <v>0.25</v>
@@ -1067,10 +1202,10 @@
         <v>0.25</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="40"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="18">
         <f>INDEX($D$1:$D$40, MATCH(K2, $A$1:$A$40, 0))</f>
         <v>3610</v>
@@ -1204,24 +1339,24 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="42"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="17">
         <v>0.3</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31">
+      <c r="O9" s="38"/>
+      <c r="P9" s="38">
         <f>IF(N11="Halved",((K9*AA4/E42)+(K10*AA5/F42)+(K11*AA6/D42))*0.5,(K9*AA4/E42)+(K10*AA5/F42)+(K11*AA6/D42))</f>
         <v>0.36950670012839965</v>
       </c>
-      <c r="Q9" s="33"/>
+      <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -1245,17 +1380,17 @@
         <v>0.25</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="28"/>
+      <c r="J10" s="35"/>
       <c r="K10">
         <v>0.6</v>
       </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="34"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="41"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -1279,18 +1414,18 @@
         <v>0.5</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="28"/>
+      <c r="J11" s="35"/>
       <c r="K11">
         <v>0.1</v>
       </c>
-      <c r="N11" s="35" t="str">
+      <c r="N11" s="42" t="str">
         <f>IF(AA6 &gt;=K12, "Halved", "Not Halved")</f>
         <v>Not Halved</v>
       </c>
-      <c r="O11" s="35"/>
+      <c r="O11" s="42"/>
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1315,10 +1450,10 @@
         <v>0.2</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="30"/>
+      <c r="J12" s="37"/>
       <c r="K12" s="15">
         <v>50000</v>
       </c>
@@ -1374,12 +1509,14 @@
         <v>0.25</v>
       </c>
       <c r="G14" s="9"/>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="33"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
@@ -1410,6 +1547,7 @@
         <f>AA4/E42</f>
         <v>0.4</v>
       </c>
+      <c r="K15" s="27"/>
       <c r="L15" s="13">
         <f>J15*K9</f>
         <v>0.12</v>
@@ -1444,6 +1582,7 @@
         <f>AA5/F42</f>
         <v>0.3566009104704097</v>
       </c>
+      <c r="K16" s="27"/>
       <c r="L16" s="13">
         <f>J16*K10</f>
         <v>0.21396054628224581</v>
@@ -1478,6 +1617,7 @@
         <f>AA6/D42</f>
         <v>0.35546153846153844</v>
       </c>
+      <c r="K17" s="27"/>
       <c r="L17" s="13">
         <f>J17*K11</f>
         <v>3.5546153846153845E-2</v>
@@ -1506,6 +1646,7 @@
       </c>
       <c r="G18" s="9"/>
       <c r="I18" s="12"/>
+      <c r="K18" s="27"/>
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1534,12 +1675,12 @@
         <v>13</v>
       </c>
       <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="K19" s="28"/>
       <c r="L19" s="16">
         <f t="shared" ref="L19" si="5">SUM(L15:L17)</f>
         <v>0.36950670012839965</v>
       </c>
-      <c r="R19" s="43"/>
+      <c r="R19" s="24"/>
     </row>
     <row r="20" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -2057,7 +2198,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="N9:O10"/>
     <mergeCell ref="P9:Q10"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="I2:J2"/>
@@ -2065,11 +2207,11 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="N9:O10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2078,7 +2220,975 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E75966-9406-4B94-85A0-594FB1F74249}">
+  <dimension ref="B1:AH27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B1" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+    </row>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B2" s="26">
+        <v>18</v>
+      </c>
+      <c r="C2" s="26">
+        <v>7</v>
+      </c>
+      <c r="D2" s="26">
+        <v>8</v>
+      </c>
+      <c r="E2" s="25">
+        <v>24</v>
+      </c>
+      <c r="F2" s="25">
+        <v>10</v>
+      </c>
+      <c r="G2" s="25">
+        <v>2</v>
+      </c>
+      <c r="H2" s="25">
+        <v>14</v>
+      </c>
+      <c r="I2" s="25">
+        <v>35</v>
+      </c>
+      <c r="J2" s="25">
+        <v>39</v>
+      </c>
+      <c r="K2" s="26">
+        <v>19</v>
+      </c>
+      <c r="L2" s="26">
+        <v>3</v>
+      </c>
+      <c r="M2" s="26">
+        <v>27</v>
+      </c>
+      <c r="N2" s="26">
+        <v>37</v>
+      </c>
+      <c r="O2" s="26">
+        <v>21</v>
+      </c>
+      <c r="P2" s="26">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B3" s="26">
+        <v>35</v>
+      </c>
+      <c r="C3" s="26">
+        <v>17</v>
+      </c>
+      <c r="D3" s="26">
+        <v>18</v>
+      </c>
+      <c r="E3" s="25">
+        <v>12</v>
+      </c>
+      <c r="F3" s="25">
+        <v>32</v>
+      </c>
+      <c r="G3" s="25">
+        <v>24</v>
+      </c>
+      <c r="H3" s="25">
+        <v>13</v>
+      </c>
+      <c r="I3" s="25">
+        <v>7</v>
+      </c>
+      <c r="J3" s="25">
+        <v>28</v>
+      </c>
+      <c r="K3" s="26">
+        <v>25</v>
+      </c>
+      <c r="L3" s="26">
+        <v>27</v>
+      </c>
+      <c r="M3" s="26">
+        <v>1</v>
+      </c>
+      <c r="N3" s="26">
+        <v>37</v>
+      </c>
+      <c r="O3" s="26">
+        <v>5</v>
+      </c>
+      <c r="P3" s="26">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B5" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="25">
+        <v>12</v>
+      </c>
+      <c r="F6" s="25">
+        <v>32</v>
+      </c>
+      <c r="G6" s="25">
+        <v>24</v>
+      </c>
+      <c r="H6" s="25">
+        <v>13</v>
+      </c>
+      <c r="I6" s="25">
+        <v>7</v>
+      </c>
+      <c r="J6" s="25">
+        <v>28</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="25">
+        <v>24</v>
+      </c>
+      <c r="F7" s="25">
+        <v>10</v>
+      </c>
+      <c r="G7" s="25">
+        <v>2</v>
+      </c>
+      <c r="H7" s="25">
+        <v>14</v>
+      </c>
+      <c r="I7" s="25">
+        <v>35</v>
+      </c>
+      <c r="J7" s="25">
+        <v>39</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B9" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B10" s="26">
+        <v>19</v>
+      </c>
+      <c r="C10" s="26">
+        <v>3</v>
+      </c>
+      <c r="D10" s="26">
+        <v>27</v>
+      </c>
+      <c r="E10" s="26">
+        <v>37</v>
+      </c>
+      <c r="F10" s="26">
+        <v>21</v>
+      </c>
+      <c r="G10" s="26">
+        <v>28</v>
+      </c>
+      <c r="H10" s="26">
+        <v>18</v>
+      </c>
+      <c r="I10" s="26">
+        <v>7</v>
+      </c>
+      <c r="J10" s="26">
+        <v>8</v>
+      </c>
+      <c r="K10" s="25">
+        <v>24</v>
+      </c>
+      <c r="L10" s="25">
+        <v>10</v>
+      </c>
+      <c r="M10" s="25">
+        <v>2</v>
+      </c>
+      <c r="N10" s="25">
+        <v>14</v>
+      </c>
+      <c r="O10" s="25">
+        <v>35</v>
+      </c>
+      <c r="P10" s="25">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="26">
+        <v>25</v>
+      </c>
+      <c r="C11" s="26">
+        <v>27</v>
+      </c>
+      <c r="D11" s="26">
+        <v>1</v>
+      </c>
+      <c r="E11" s="26">
+        <v>37</v>
+      </c>
+      <c r="F11" s="26">
+        <v>5</v>
+      </c>
+      <c r="G11" s="26">
+        <v>22</v>
+      </c>
+      <c r="H11" s="26">
+        <v>35</v>
+      </c>
+      <c r="I11" s="26">
+        <v>17</v>
+      </c>
+      <c r="J11" s="26">
+        <v>18</v>
+      </c>
+      <c r="K11" s="25">
+        <v>12</v>
+      </c>
+      <c r="L11" s="25">
+        <v>32</v>
+      </c>
+      <c r="M11" s="25">
+        <v>24</v>
+      </c>
+      <c r="N11" s="25">
+        <v>13</v>
+      </c>
+      <c r="O11" s="25">
+        <v>7</v>
+      </c>
+      <c r="P11" s="25">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B13" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B14" s="26">
+        <v>19</v>
+      </c>
+      <c r="C14" s="26">
+        <v>3</v>
+      </c>
+      <c r="D14" s="26">
+        <v>27</v>
+      </c>
+      <c r="E14" s="26">
+        <v>37</v>
+      </c>
+      <c r="F14" s="26">
+        <v>21</v>
+      </c>
+      <c r="G14" s="29">
+        <v>28</v>
+      </c>
+      <c r="H14" s="26">
+        <v>18</v>
+      </c>
+      <c r="I14" s="29">
+        <v>7</v>
+      </c>
+      <c r="J14" s="26">
+        <v>8</v>
+      </c>
+      <c r="K14" s="29">
+        <v>24</v>
+      </c>
+      <c r="L14" s="25">
+        <v>10</v>
+      </c>
+      <c r="M14" s="25">
+        <v>2</v>
+      </c>
+      <c r="N14" s="25">
+        <v>14</v>
+      </c>
+      <c r="O14" s="25">
+        <v>35</v>
+      </c>
+      <c r="P14" s="25">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B15" s="26">
+        <v>25</v>
+      </c>
+      <c r="C15" s="26">
+        <v>27</v>
+      </c>
+      <c r="D15" s="26">
+        <v>1</v>
+      </c>
+      <c r="E15" s="26">
+        <v>37</v>
+      </c>
+      <c r="F15" s="26">
+        <v>5</v>
+      </c>
+      <c r="G15" s="26">
+        <v>22</v>
+      </c>
+      <c r="H15" s="29">
+        <v>35</v>
+      </c>
+      <c r="I15" s="26">
+        <v>17</v>
+      </c>
+      <c r="J15" s="26">
+        <v>18</v>
+      </c>
+      <c r="K15" s="25">
+        <v>12</v>
+      </c>
+      <c r="L15" s="25">
+        <v>32</v>
+      </c>
+      <c r="M15" s="29">
+        <v>24</v>
+      </c>
+      <c r="N15" s="25">
+        <v>13</v>
+      </c>
+      <c r="O15" s="25">
+        <v>7</v>
+      </c>
+      <c r="P15" s="25">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B17" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B18" s="51">
+        <v>19</v>
+      </c>
+      <c r="C18" s="51">
+        <v>3</v>
+      </c>
+      <c r="D18" s="51">
+        <v>27</v>
+      </c>
+      <c r="E18" s="51">
+        <v>37</v>
+      </c>
+      <c r="F18" s="51">
+        <v>21</v>
+      </c>
+      <c r="G18" s="51">
+        <v>18</v>
+      </c>
+      <c r="H18" s="52">
+        <v>8</v>
+      </c>
+      <c r="I18" s="52">
+        <v>10</v>
+      </c>
+      <c r="J18" s="52">
+        <v>2</v>
+      </c>
+      <c r="K18" s="25">
+        <v>14</v>
+      </c>
+      <c r="L18" s="25">
+        <v>35</v>
+      </c>
+      <c r="M18" s="25">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B19" s="51">
+        <v>25</v>
+      </c>
+      <c r="C19" s="51">
+        <v>27</v>
+      </c>
+      <c r="D19" s="51">
+        <v>1</v>
+      </c>
+      <c r="E19" s="51">
+        <v>37</v>
+      </c>
+      <c r="F19" s="51">
+        <v>5</v>
+      </c>
+      <c r="G19" s="51">
+        <v>22</v>
+      </c>
+      <c r="H19" s="52">
+        <v>17</v>
+      </c>
+      <c r="I19" s="52">
+        <v>18</v>
+      </c>
+      <c r="J19" s="52">
+        <v>12</v>
+      </c>
+      <c r="K19" s="25">
+        <v>32</v>
+      </c>
+      <c r="L19" s="25">
+        <v>13</v>
+      </c>
+      <c r="M19" s="25">
+        <v>7</v>
+      </c>
+      <c r="N19" s="25">
+        <v>28</v>
+      </c>
+      <c r="Q19" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B21" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="E22" s="25">
+        <v>12</v>
+      </c>
+      <c r="F22" s="25">
+        <v>32</v>
+      </c>
+      <c r="G22" s="25">
+        <v>24</v>
+      </c>
+      <c r="H22" s="25">
+        <v>13</v>
+      </c>
+      <c r="I22" s="25">
+        <v>7</v>
+      </c>
+      <c r="J22" s="25">
+        <v>28</v>
+      </c>
+      <c r="K22" s="51">
+        <v>19</v>
+      </c>
+      <c r="L22" s="51">
+        <v>3</v>
+      </c>
+      <c r="M22" s="51">
+        <v>27</v>
+      </c>
+      <c r="N22" s="51">
+        <v>37</v>
+      </c>
+      <c r="O22" s="51">
+        <v>21</v>
+      </c>
+      <c r="P22" s="51">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="E23" s="25">
+        <v>24</v>
+      </c>
+      <c r="F23" s="25">
+        <v>10</v>
+      </c>
+      <c r="G23" s="25">
+        <v>2</v>
+      </c>
+      <c r="H23" s="25">
+        <v>14</v>
+      </c>
+      <c r="I23" s="25">
+        <v>35</v>
+      </c>
+      <c r="J23" s="25">
+        <v>39</v>
+      </c>
+      <c r="K23" s="51">
+        <v>25</v>
+      </c>
+      <c r="L23" s="51">
+        <v>27</v>
+      </c>
+      <c r="M23" s="51">
+        <v>1</v>
+      </c>
+      <c r="N23" s="51">
+        <v>37</v>
+      </c>
+      <c r="O23" s="51">
+        <v>5</v>
+      </c>
+      <c r="P23" s="51">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B25" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="35"/>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B26" s="52">
+        <v>8</v>
+      </c>
+      <c r="C26" s="52">
+        <v>10</v>
+      </c>
+      <c r="D26" s="52">
+        <v>2</v>
+      </c>
+      <c r="E26" s="25">
+        <v>12</v>
+      </c>
+      <c r="F26" s="25">
+        <v>32</v>
+      </c>
+      <c r="G26" s="25">
+        <v>24</v>
+      </c>
+      <c r="H26" s="25">
+        <v>13</v>
+      </c>
+      <c r="I26" s="25">
+        <v>7</v>
+      </c>
+      <c r="J26" s="25">
+        <v>28</v>
+      </c>
+      <c r="K26" s="51">
+        <v>19</v>
+      </c>
+      <c r="L26" s="51">
+        <v>3</v>
+      </c>
+      <c r="M26" s="51">
+        <v>27</v>
+      </c>
+      <c r="N26" s="51">
+        <v>37</v>
+      </c>
+      <c r="O26" s="51">
+        <v>21</v>
+      </c>
+      <c r="P26" s="51">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B27" s="52">
+        <v>17</v>
+      </c>
+      <c r="C27" s="52">
+        <v>18</v>
+      </c>
+      <c r="D27" s="52">
+        <v>12</v>
+      </c>
+      <c r="E27" s="25">
+        <v>24</v>
+      </c>
+      <c r="F27" s="25">
+        <v>10</v>
+      </c>
+      <c r="G27" s="25">
+        <v>2</v>
+      </c>
+      <c r="H27" s="25">
+        <v>14</v>
+      </c>
+      <c r="I27" s="25">
+        <v>35</v>
+      </c>
+      <c r="J27" s="25">
+        <v>39</v>
+      </c>
+      <c r="K27" s="51">
+        <v>25</v>
+      </c>
+      <c r="L27" s="51">
+        <v>27</v>
+      </c>
+      <c r="M27" s="51">
+        <v>1</v>
+      </c>
+      <c r="N27" s="51">
+        <v>37</v>
+      </c>
+      <c r="O27" s="51">
+        <v>5</v>
+      </c>
+      <c r="P27" s="51">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="B9:P9"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="B17:P17"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="T25:AH25"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T1:AH1"/>
+    <mergeCell ref="T5:AH5"/>
+    <mergeCell ref="T9:AH9"/>
+    <mergeCell ref="T13:AH13"/>
+    <mergeCell ref="T16:AH16"/>
+    <mergeCell ref="T21:AH21"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q19:S19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f063be06-7acc-469c-a66a-0b8ebdded0cb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2087,7 +3197,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF35FB85570C14FB79B4F0001F06A8E" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51827fa15552bd30d5f9437c124a3dfb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f063be06-7acc-469c-a66a-0b8ebdded0cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5b4f187e15c57d205ad00878fc31e24" ns3:_="">
     <xsd:import namespace="f063be06-7acc-469c-a66a-0b8ebdded0cb"/>
@@ -2237,15 +3347,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f063be06-7acc-469c-a66a-0b8ebdded0cb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69DCE8AC-7A6A-422E-A6B8-F8EB0CFBAC34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="f063be06-7acc-469c-a66a-0b8ebdded0cb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{080B7009-6246-40FB-B8C4-B02CD9A00917}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2253,7 +3371,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65CF4092-890D-4DC8-A423-C9A1A466ED01}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2269,20 +3387,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69DCE8AC-7A6A-422E-A6B8-F8EB0CFBAC34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="f063be06-7acc-469c-a66a-0b8ebdded0cb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>